--- a/notebooks/useful_notebooks/Template_xls/Micros_summary_example.xlsx
+++ b/notebooks/useful_notebooks/Template_xls/Micros_summary_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51280" yWindow="14220" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="7540" yWindow="1380" windowWidth="42880" windowHeight="24600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>Experiment Sets (alias root)</t>
   </si>
@@ -181,6 +181,51 @@
   </si>
   <si>
     <t>raw:10, rendered:10</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>my_set1</t>
+  </si>
+  <si>
+    <t>nuclear speckle density</t>
+  </si>
+  <si>
+    <t>wt cells</t>
+  </si>
+  <si>
+    <t>nuclear speckle density of wt Tier2 U2OS cells</t>
+  </si>
+  <si>
+    <t>U2OS</t>
+  </si>
+  <si>
+    <t>del-speckle-factor-1</t>
+  </si>
+  <si>
+    <t>Crispr deletion of gene SF1 (speckle factor 1)</t>
+  </si>
+  <si>
+    <t>chromosomes</t>
+  </si>
+  <si>
+    <t>SPF-2</t>
+  </si>
+  <si>
+    <t>spf2AB-647</t>
+  </si>
+  <si>
+    <t>DAPI</t>
+  </si>
+  <si>
+    <t>my_set2</t>
+  </si>
+  <si>
+    <t>SP1 deletion</t>
   </si>
 </sst>
 </file>
@@ -269,7 +314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,28 +326,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,312 +706,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="70.33203125" customWidth="1"/>
-    <col min="7" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="1" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="8" customFormat="1" ht="75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="6" t="s">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="6" t="s">
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="Q10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="R10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="6" t="s">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="Q11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="R11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="6" t="s">
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="Q12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="R12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
